--- a/Packet/PacketData/Character.xlsx
+++ b/Packet/PacketData/Character.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="プレイヤー退出" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="キャラクタータイプ" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -150,7 +150,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Character.xlsx
+++ b/Packet/PacketData/Character.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="キャラクタータイプ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ジョブ" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -38,6 +39,21 @@
   </si>
   <si>
     <t xml:space="preserve">Enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterJob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorcerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancer</t>
   </si>
 </sst>
 </file>
@@ -149,7 +165,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -199,4 +215,85 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Character.xlsx
+++ b/Packet/PacketData/Character.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="キャラクタータイプ" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -38,22 +38,40 @@
     <t xml:space="preserve">Player</t>
   </si>
   <si>
+    <t xml:space="preserve">プレイヤー</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enemy</t>
   </si>
   <si>
+    <t xml:space="preserve">敵（アンパン）</t>
+  </si>
+  <si>
     <t xml:space="preserve">CharacterJob</t>
   </si>
   <si>
     <t xml:space="preserve">Fighter</t>
   </si>
   <si>
+    <t xml:space="preserve">ファイター</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sorcerer</t>
   </si>
   <si>
+    <t xml:space="preserve">ソーサラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">Healer</t>
   </si>
   <si>
+    <t xml:space="preserve">ヒーラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランサー</t>
   </si>
 </sst>
 </file>
@@ -163,10 +181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -194,6 +212,9 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -203,7 +224,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -222,10 +246,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -240,7 +264,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,7 +275,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,7 +289,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,7 +303,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +317,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
